--- a/game flow/La_Liga_GameFlow.xlsx
+++ b/game flow/La_Liga_GameFlow.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.901617250673854</v>
+        <v>3.889784946236559</v>
       </c>
       <c r="C2" t="n">
-        <v>8.677519379844961</v>
+        <v>8.716510903426791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7922710319104849</v>
+        <v>0.7921889568009945</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04399757068628113</v>
+        <v>0.04400647948164147</v>
       </c>
       <c r="G2" t="n">
         <v>55</v>
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.199208443271768</v>
+        <v>5.164348925410872</v>
       </c>
       <c r="C3" t="n">
-        <v>7.106180665610142</v>
+        <v>7.045523520485585</v>
       </c>
       <c r="D3" t="n">
-        <v>0.680268796260226</v>
+        <v>0.6814670017685935</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05914943425673039</v>
+        <v>0.05884992148358633</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.871374527112232</v>
+        <v>4.93520782396088</v>
       </c>
       <c r="C4" t="n">
-        <v>9.043396226415094</v>
+        <v>8.992818671454218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5341969480733341</v>
+        <v>0.5458039052762775</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06901758749333807</v>
+        <v>0.06744302949061662</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.557806912991657</v>
+        <v>5.572571428571429</v>
       </c>
       <c r="C5" t="n">
-        <v>7.050751879699249</v>
+        <v>7.23869801084991</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4039332538736591</v>
+        <v>0.405093926472283</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08429252412510173</v>
+        <v>0.08306567726215527</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.6</v>
+        <v>5.656470588235294</v>
       </c>
       <c r="C6" t="n">
-        <v>7.979779411764706</v>
+        <v>8.105924596050269</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5391618857570466</v>
+        <v>0.5216118074264964</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07990267639902676</v>
+        <v>0.07946646627841443</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.809692671394799</v>
+        <v>5.88496583143508</v>
       </c>
       <c r="C7" t="n">
-        <v>6.610778443113772</v>
+        <v>6.791907514450867</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3951943462897526</v>
+        <v>0.4016571583808747</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09745379345999741</v>
+        <v>0.09650195694716243</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -698,51 +698,51 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.310195227765727</v>
+        <v>6.029274004683841</v>
       </c>
       <c r="C11" t="n">
-        <v>5.988941548183254</v>
+        <v>5.373292867981791</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4921634121274409</v>
+        <v>0.5984109283523836</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07762363655617918</v>
+        <v>0.07825727854635557</v>
       </c>
       <c r="G11" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.029411764705882</v>
+        <v>4.559162303664921</v>
       </c>
       <c r="C12" t="n">
-        <v>5.237871674491393</v>
+        <v>4.326</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5915863277826467</v>
+        <v>0.4154395359214637</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07850609756097561</v>
+        <v>0.1313390313390313</v>
       </c>
       <c r="G12" t="n">
-        <v>-4</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="13">
@@ -752,122 +752,122 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.556894243641231</v>
+        <v>5.493638676844784</v>
       </c>
       <c r="C13" t="n">
-        <v>8.483245149911816</v>
+        <v>8.45362563237774</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4409168913949497</v>
+        <v>0.4401503582755785</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0739767559373421</v>
+        <v>0.07318728189220629</v>
       </c>
       <c r="G13" t="n">
-        <v>-17</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.719399538106236</v>
+        <v>3.539915966386554</v>
       </c>
       <c r="C14" t="n">
-        <v>9.204991087344029</v>
+        <v>7.943661971830986</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5947818055876241</v>
+        <v>0.5478051713770294</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05305506663314056</v>
+        <v>0.08658314811072944</v>
       </c>
       <c r="G14" t="n">
-        <v>-34</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.48021978021978</v>
+        <v>4.206217616580311</v>
       </c>
       <c r="C15" t="n">
-        <v>8.01660516605166</v>
+        <v>5.849779086892489</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5461330792440845</v>
+        <v>0.4948209160114813</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08789351362772026</v>
+        <v>0.07809485122372296</v>
       </c>
       <c r="G15" t="n">
-        <v>-30</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.462628865979381</v>
+        <v>3.719399538106236</v>
       </c>
       <c r="C16" t="n">
-        <v>7.036964980544747</v>
+        <v>9.204991087344029</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3619371282922685</v>
+        <v>0.5947818055876241</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1102362204724409</v>
+        <v>0.05305506663314056</v>
       </c>
       <c r="G16" t="n">
-        <v>-11</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.694038245219348</v>
+        <v>5.482535575679172</v>
       </c>
       <c r="C17" t="n">
-        <v>4.356394129979035</v>
+        <v>7.007751937984496</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4154604250076994</v>
+        <v>0.3620145631067961</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1295582567447376</v>
+        <v>0.1101431980906921</v>
       </c>
       <c r="G17" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="18">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.108179419525066</v>
+        <v>5.064070351758794</v>
       </c>
       <c r="C18" t="n">
-        <v>7.88953488372093</v>
+        <v>7.863805970149254</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4426846683110476</v>
+        <v>0.433969185619956</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08948863636363637</v>
+        <v>0.0886342130165072</v>
       </c>
       <c r="G18" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="19">
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.323566878980892</v>
+        <v>5.365644171779141</v>
       </c>
       <c r="C20" t="n">
-        <v>5.850467289719626</v>
+        <v>6.041366906474821</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3480106100795756</v>
+        <v>0.344306049822064</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1050203527815468</v>
+        <v>0.1054054054054054</v>
       </c>
       <c r="G20" t="n">
-        <v>-5</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="21">

--- a/game flow/La_Liga_GameFlow.xlsx
+++ b/game flow/La_Liga_GameFlow.xlsx
@@ -473,101 +473,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.889784946236559</v>
+        <v>5.28174123337364</v>
       </c>
       <c r="C2" t="n">
-        <v>8.716510903426791</v>
+        <v>7.183553597650514</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7921889568009945</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04400647948164147</v>
+        <v>0.05932081960166213</v>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.164348925410872</v>
+        <v>3.889784946236559</v>
       </c>
       <c r="C3" t="n">
-        <v>7.045523520485585</v>
+        <v>8.716510903426791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6814670017685935</v>
+        <v>0.7921889568009945</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05884992148358633</v>
+        <v>0.04400647948164147</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Atlético Madrid</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.93520782396088</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="C4" t="n">
-        <v>8.992818671454218</v>
+        <v>7.023569023569023</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5458039052762775</v>
+        <v>0.4080135440180587</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06744302949061662</v>
+        <v>0.08554383722168957</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Atlético Madrid</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.572571428571429</v>
+        <v>4.965801886792453</v>
       </c>
       <c r="C5" t="n">
-        <v>7.23869801084991</v>
+        <v>9.034542314335061</v>
       </c>
       <c r="D5" t="n">
-        <v>0.405093926472283</v>
+        <v>0.5483838485550298</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08306567726215527</v>
+        <v>0.06915150539365642</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.656470588235294</v>
+        <v>5.744583808437857</v>
       </c>
       <c r="C6" t="n">
-        <v>8.105924596050269</v>
+        <v>8.195079086115992</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5216118074264964</v>
+        <v>0.5107496936615796</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07946646627841443</v>
+        <v>0.07963232617400801</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.88496583143508</v>
+        <v>5.886586695747001</v>
       </c>
       <c r="C7" t="n">
-        <v>6.791907514450867</v>
+        <v>6.951219512195122</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4016571583808747</v>
+        <v>0.3997421018697614</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09650195694716243</v>
+        <v>0.0955770801727156</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.711168164313222</v>
+        <v>5.757462686567164</v>
       </c>
       <c r="C8" t="n">
-        <v>9.212612612612613</v>
+        <v>9.135042735042735</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4927824267782427</v>
+        <v>0.4984426805988144</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07421977445580907</v>
+        <v>0.07327046649420012</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -652,72 +652,72 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.335758835758836</v>
+        <v>4.451158106747231</v>
       </c>
       <c r="C9" t="n">
-        <v>7.474074074074074</v>
+        <v>7.630742049469965</v>
       </c>
       <c r="D9" t="n">
-        <v>0.480319803198032</v>
+        <v>0.4768534632788026</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0735734186358477</v>
+        <v>0.0721760391198044</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.334928229665072</v>
+        <v>5.917127071823204</v>
       </c>
       <c r="C10" t="n">
-        <v>6.573012939001848</v>
+        <v>5.264367816091954</v>
       </c>
       <c r="D10" t="n">
-        <v>0.421151674821227</v>
+        <v>0.5959473966720343</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09909289241015042</v>
+        <v>0.078125</v>
       </c>
       <c r="G10" t="n">
-        <v>-11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.029274004683841</v>
+        <v>5.214606741573034</v>
       </c>
       <c r="C11" t="n">
-        <v>5.373292867981791</v>
+        <v>6.492007104795738</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5984109283523836</v>
+        <v>0.4165858389912706</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07825727854635557</v>
+        <v>0.09958737593398015</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="12">
@@ -727,19 +727,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.559162303664921</v>
+        <v>4.447394296951819</v>
       </c>
       <c r="C12" t="n">
-        <v>4.326</v>
+        <v>4.351247600767755</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4154395359214637</v>
+        <v>0.4164494642339994</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1313390313390313</v>
+        <v>0.1321531494442157</v>
       </c>
       <c r="G12" t="n">
         <v>-17</v>
@@ -748,176 +748,176 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.493638676844784</v>
+        <v>3.525100401606426</v>
       </c>
       <c r="C13" t="n">
-        <v>8.45362563237774</v>
+        <v>7.857632933104632</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4401503582755785</v>
+        <v>0.523877001558736</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07318728189220629</v>
+        <v>0.08727092620108964</v>
       </c>
       <c r="G13" t="n">
-        <v>-14</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.539915966386554</v>
+        <v>4.157099697885196</v>
       </c>
       <c r="C14" t="n">
-        <v>7.943661971830986</v>
+        <v>5.817538896746817</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5478051713770294</v>
+        <v>0.5128296507483963</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08658314811072944</v>
+        <v>0.07747695852534563</v>
       </c>
       <c r="G14" t="n">
-        <v>-33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.206217616580311</v>
+        <v>5.069711538461538</v>
       </c>
       <c r="C15" t="n">
-        <v>5.849779086892489</v>
+        <v>7.987544483985765</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4948209160114813</v>
+        <v>0.4341463414634146</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07809485122372296</v>
+        <v>0.0885160253189993</v>
       </c>
       <c r="G15" t="n">
-        <v>-2</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.719399538106236</v>
+        <v>5.493638676844784</v>
       </c>
       <c r="C16" t="n">
-        <v>9.204991087344029</v>
+        <v>8.45362563237774</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5947818055876241</v>
+        <v>0.4401503582755785</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05305506663314056</v>
+        <v>0.07318728189220629</v>
       </c>
       <c r="G16" t="n">
-        <v>-34</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.482535575679172</v>
+        <v>3.684794672586015</v>
       </c>
       <c r="C17" t="n">
-        <v>7.007751937984496</v>
+        <v>8.953098827470686</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3620145631067961</v>
+        <v>0.5985009508893612</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1101431980906921</v>
+        <v>0.05343881175330965</v>
       </c>
       <c r="G17" t="n">
-        <v>-11</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.064070351758794</v>
+        <v>4.117913832199546</v>
       </c>
       <c r="C18" t="n">
-        <v>7.863805970149254</v>
+        <v>9.305668016194332</v>
       </c>
       <c r="D18" t="n">
-        <v>0.433969185619956</v>
+        <v>0.5300313122687162</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0886342130165072</v>
+        <v>0.0889132821075741</v>
       </c>
       <c r="G18" t="n">
-        <v>-10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.011764705882353</v>
+        <v>5.47565543071161</v>
       </c>
       <c r="C19" t="n">
-        <v>9.272536687631026</v>
+        <v>7.215759849906191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.537260151717983</v>
+        <v>0.379147465437788</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08896244957070445</v>
+        <v>0.1079368608270342</v>
       </c>
       <c r="G19" t="n">
-        <v>-1</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="20">
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.365644171779141</v>
+        <v>5.454225352112676</v>
       </c>
       <c r="C20" t="n">
-        <v>6.041366906474821</v>
+        <v>6.092783505154639</v>
       </c>
       <c r="D20" t="n">
-        <v>0.344306049822064</v>
+        <v>0.3503397158739963</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1054054054054054</v>
+        <v>0.1046240647614375</v>
       </c>
       <c r="G20" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="21">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.510179640718563</v>
+        <v>5.368181818181818</v>
       </c>
       <c r="C21" t="n">
-        <v>8.517671517671518</v>
+        <v>8.404296875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.360685774113336</v>
+        <v>0.3644399545397146</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09763101220387653</v>
+        <v>0.09850034083162917</v>
       </c>
       <c r="G21" t="n">
-        <v>-29</v>
+        <v>-28</v>
       </c>
     </row>
   </sheetData>
